--- a/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
@@ -451,155 +451,205 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>005515</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>银华中小市值量化优选股票A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>005516</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>银华中小市值量化优选股票C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>82.37</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004157</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合A</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,25 +786,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004158</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合B</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100.41</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>004157</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>信诚至诚灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>39.92</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006845</t>
+          <t>001402</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信建投聚利混合C</t>
+          <t>信诚新选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>39.92</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>001415</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>信诚新锐回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006857</t>
+          <t>002030</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蜂巢卓睿灵活配置混合A</t>
+          <t>信诚新选回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>61.80</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006858</t>
+          <t>004158</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蜂巢卓睿灵活配置混合C</t>
+          <t>信诚至诚灵活配置混合B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>61.80</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>008178</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>同泰慧盈混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001402</t>
+          <t>002046</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合A</t>
+          <t>信诚新锐回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002030</t>
+          <t>004211</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合B</t>
+          <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>100.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001415</t>
+          <t>008179</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合A</t>
+          <t>同泰慧盈混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002046</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合B</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>006857</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>蜂巢卓睿灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>61.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008178</t>
+          <t>006858</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>同泰慧盈混合A</t>
+          <t>蜂巢卓睿灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>61.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008179</t>
+          <t>006845</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>同泰慧盈混合C</t>
+          <t>中信建投聚利混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
@@ -1853,12 +1853,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1837,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,17 +1849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.76</v>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1884,14 +1927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.98</v>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1900,13 +1965,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.46</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.76</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1957</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.98</v>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2239,13 +2326,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,37 +466,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -506,36 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.69</v>
       </c>
     </row>
     <row r="3">
@@ -544,36 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.46</v>
       </c>
     </row>
     <row r="4">
@@ -582,36 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005515</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
@@ -620,36 +534,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -658,6 +566,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1957</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1435,13 +2347,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1492,36 +2404,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.22</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.23</t>
+          <t>79.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3122</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1530,36 +2442,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>009328</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>东兴兴晟混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>79.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2148</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1568,36 +2480,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>005515</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>银华中小市值量化优选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1606,948 +2518,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>005516</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>银华中小市值量化优选股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0739</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>164401</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源中证健康产业指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0458</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012297</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东兴宸瑞量化混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.48</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012298</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东兴宸瑞量化混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.48</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011230</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9483</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6723</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>24.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5357</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1514</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0496</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>257050</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国联安主题驱动混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>65.37</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011174</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值品质一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>75.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0575</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1957</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1206</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6733</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011230</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5573</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>257050</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国联安主题驱动混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0852</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.69</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>5.69</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.46</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.76</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.98</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -566,6 +583,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,7 +998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1171,7 +1320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1569,7 +1718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2347,7 +2496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002034-旺能环境.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.69</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.46</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.76</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.98</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -583,6 +600,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7902</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>850007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>850788</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>850799</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +1051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -998,7 +1335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1320,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1718,7 +2055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2496,7 +2833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
